--- a/compiled_outputs.xlsx
+++ b/compiled_outputs.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WP3234DY Rookery ERF Annual Performance Report 2022.xlsm</t>
+          <t>Rookery ERF Annual Performance Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DP3104SC Suez Tees Valley Annual Report 2022.xlsm</t>
+          <t>Suez Tees Valley Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -497,7 +497,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FP3739FS FCC Lincoln EfW Annual Report 2022.xlsm</t>
+          <t>FCC Lincoln EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -514,7 +514,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BK0825UI Cory Riverside Annual Report 2022.xlsm</t>
+          <t>Cory Riverside Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -533,7 +533,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HP3341QV Stoke Annual Report 2022.xlsm</t>
+          <t>Stoke Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -548,7 +548,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BJ7107IJ Veolia Portsmouth Annual Report v22.3.xlsm</t>
+          <t>Veolia Portsmouth Annual Report v22.3.xlsm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -565,7 +565,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WP3438HZ Suez Suffolk EfW 2022 Annual Report 2023.xlsm</t>
+          <t>Suez Suffolk EfW 2022 Annual Report 2023.xlsm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -582,7 +582,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BV8067IL Veolia Newhaven Annual Report 2022 v22.3.xlsm</t>
+          <t>Veolia Newhaven Annual Report 2022 v22.3.xlsm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -601,7 +601,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KP3936ZB Tilbury Green Power Ltd Annual Report 2022.xlsm</t>
+          <t>Tilbury Green Power Ltd Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -618,7 +618,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NP3338SZ Anciliary Components Annual Report 2022.xlsm</t>
+          <t>Anciliary Components Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -635,7 +635,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BT7116IW Lakeside EfW Annual Report 2022.xlsm</t>
+          <t>Lakeside EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -652,7 +652,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NP3638ZS Viridor Peterborough EFW Annual Report 2022.xlsm</t>
+          <t>Viridor Peterborough EFW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -669,7 +669,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NP3739PD CSWDC Annual Report 2022.xlsm</t>
+          <t>CSWDC Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -686,7 +686,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PP3235LP EPR Thetford Annual Report 2022.xlsm</t>
+          <t>EPR Thetford Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -703,7 +703,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WP3239SJ Veolia Tyseley EfW Annual Report 2022.xlsm</t>
+          <t>Veolia Tyseley EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -720,7 +720,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CP3207PV Clintek (Stoke) EfW Annual Report 2022.xlsm</t>
+          <t>Clintek (Stoke) EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -737,7 +737,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UP3937ZZ Thalia MKWRP Annual Report 2022.xlsm</t>
+          <t>Thalia MKWRP Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -754,7 +754,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UP3205PX Bridge Farm EfW Annual Report 2022.xlsm</t>
+          <t>Bridge Farm EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -775,7 +775,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RP3036QU Suez Bolton EfW Annual Performance Annual Report 2022.xlsm</t>
+          <t>Suez Bolton EfW Annual Performance Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -792,7 +792,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WP3833FT MVV Environment Devonport Annual Report 2022.xlsm</t>
+          <t>MVV Environment Devonport Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -809,7 +809,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>XP3005LB Viridor Runcorn ERF Annual Report 2022.xlsm</t>
+          <t>Viridor Runcorn ERF Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -826,7 +826,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VP3997NK Suez Chalton Lane Annual Report 2022.xlsm</t>
+          <t>Suez Chalton Lane Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -843,7 +843,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SP3239FU enfinium Ferrybridge 1 Ltd - Annual Report 2022.xlsm</t>
+          <t>enfinium Ferrybridge 1 Ltd - Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -858,7 +858,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BT4249IB Newlincs IWMF Annual Report 2022.xlsm</t>
+          <t>Newlincs IWMF Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -875,7 +875,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UP3232SX EPR Glanford Annual Report 2022.xlsm</t>
+          <t>EPR Glanford Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -892,7 +892,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MP3235CC JG Pears EfW Annual Report 2022.xlsm</t>
+          <t>JG Pears EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -909,7 +909,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SP3301LA Viridor SRRRC Annual Report 2022.xlsm</t>
+          <t>Viridor SRRRC Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -924,7 +924,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CP3535CK Javelin Park Annual Performance Report 2022.xlsm</t>
+          <t>Javelin Park Annual Performance Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -941,7 +941,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HP3247QS Dudley Annual Report_2022.xlsm</t>
+          <t>Dudley Annual Report_2022.xlsm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -956,7 +956,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UP3131DF Biomas UK No3 Boston Annual Report 2022.xlsm</t>
+          <t>Biomas UK No3 Boston Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -971,7 +971,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SP3638KV Twinwoods Heat and Power Limited Annual Performance Report 2022.xlsm</t>
+          <t>Twinwoods Heat and Power Limited Annual Performance Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -988,7 +988,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BR4551IC Allington Annual Report 2022.xlsm</t>
+          <t>Allington Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BM4082IY Veolia Sheffield ERF Annual Report 2022.xlsm</t>
+          <t>Veolia Sheffield ERF Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>XP3239GF Battlefield ERF Annual Report 2022.xlsm</t>
+          <t>Battlefield ERF Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1039,7 +1039,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EP3034SN FCC Eastcroft Annual Report 2022.xlsm</t>
+          <t>FCC Eastcroft Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1056,7 +1056,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZP3438CF Fine Environmental Services Annual Report 2022.xlsm</t>
+          <t>Fine Environmental Services Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FP3701Z Welland Annual Report 2022.xlsm</t>
+          <t>Welland Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UP3734HT FCC Greatmoor Annual Report 2022.xlsm</t>
+          <t>FCC Greatmoor Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FP3935KL Tradebe Fawley Annual Report 2022.xlsm</t>
+          <t>Tradebe Fawley Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1122,7 +1122,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ZP3937KL SUEZ SERC 2022 Annual Report v2.xlsm</t>
+          <t>SUEZ SERC 2022 Annual Report v2.xlsm</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1139,7 +1139,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BJ6178IX SUEZ Huddersfield ERF Annual Report 2022.xlsm</t>
+          <t>SUEZ Huddersfield ERF Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1156,7 +1156,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>WP3935SM Addenbrookes Annual Report 2022.xlsm</t>
+          <t>Addenbrookes Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1173,7 +1173,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NP3837NV Energy Works Hull EfW Annual Report 2022.xlsm</t>
+          <t>Energy Works Hull EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1190,7 +1190,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GP3433GH Suez CERC 2022 Annual Report 2022.xlsm</t>
+          <t>Suez CERC 2022 Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GP3509PX Birmingham BioPower Annual Report 2022.xlsm</t>
+          <t>Birmingham BioPower Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GP3305LN Viridor Beddington Annual Report 2022.xlsm</t>
+          <t>Viridor Beddington Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HP3349QK Wolverhampton Annual Report_2022.xlsm</t>
+          <t>Wolverhampton Annual Report_2022.xlsm</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GP3334CX Veolia Leeds RERF Annual Report 2022.xlsm</t>
+          <t>Veolia Leeds RERF Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BJ7093IY Veolia Marchwood Annual Report 2022 v22.3.xlsm</t>
+          <t>Veolia Marchwood Annual Report 2022 v22.3.xlsm</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1288,7 +1288,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>YP3033BE London Energy EfW Annual Report 2022.xlsm</t>
+          <t>London Energy EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NP3034CG Thalia Allerton EfW Annual Report 2022.xlsm</t>
+          <t>Thalia Allerton EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1324,7 +1324,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UP3005LJ Ardley EfW Annual Performance Report 2022 - Resubmitted April 2023.xlsm</t>
+          <t>Ardley EfW Annual Performance Report 2022 - Resubmitted April 2023.xlsm</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1339,7 +1339,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BJ7786IV Chineham EfW Annual Performance Report template 2022 v22.3 revised May 2023.xlsx.xlsm</t>
+          <t>Chineham EfW Annual Performance Report template 2022 v22.3 revised May 2023.xlsx.xlsm</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1354,7 +1354,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>XP3833DK enfinium Ferrybridge 2 Ltd - Annual Report 2022.xlsm</t>
+          <t>enfinium Ferrybridge 2 Ltd - Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JP3135DK Enfinium Kemsley Annual Report 2022.xlsm</t>
+          <t>Enfinium Kemsley Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1386,7 +1386,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HP3538CR Cyclerval Exeter EfW Annual Report 2022.xlsm</t>
+          <t>Cyclerval Exeter EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1403,7 +1403,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NP3101SV BIG Ince Annual Report 2022.xlsm</t>
+          <t>BIG Ince Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NP3738SY Veolia SELCHP EfW Annual Report 2022.xlsm</t>
+          <t>Veolia SELCHP EfW Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1437,7 +1437,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>XP3730QZ Baddesley Annual Report 2022.xlsm</t>
+          <t>Baddesley Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1452,7 +1452,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>XP3436WB Suez Wilton 11 Annual Report 2022.xlsm</t>
+          <t>Suez Wilton 11 Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CP3031SX Slough Heat and Power Statio EfW Annual Performance Report 2022.xlsm</t>
+          <t>Slough Heat and Power Statio EfW Annual Performance Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1486,7 +1486,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HP3431HK Staffordshire ERF Annual Report 2022.xlsm</t>
+          <t>Staffordshire ERF Annual Report 2022.xlsm</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
